--- a/testing_sessions/230608_unibo/xlsx_viz/LineChart MyTisse.xlsx
+++ b/testing_sessions/230608_unibo/xlsx_viz/LineChart MyTisse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuele/Desktop/DHDK Thesis/mytisse_git/testing_sessions/230608_unibo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuele/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9278041-604C-5744-8A14-308A8BFBC848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF980DB-B7D5-874C-9335-7B1ACB3DDAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C20AF5D2-36E4-1648-8125-3606B0DF4754}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{C20AF5D2-36E4-1648-8125-3606B0DF4754}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -172,10 +172,10 @@
                   <c:v>Painting</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>War</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Color</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>War</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Conservation</c:v>
@@ -254,10 +254,10 @@
                   <c:v>Painting</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>War</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Color</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>War</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Conservation</c:v>
@@ -334,10 +334,10 @@
                   <c:v>Painting</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>War</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Color</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>War</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Conservation</c:v>
@@ -416,10 +416,10 @@
                   <c:v>Painting</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>War</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Color</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>War</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Conservation</c:v>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D747D4-D860-6F40-B15E-255D6A2EC2E1}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>3.12</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3.83</v>
